--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,22 +636,127 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="3" t="s">
-        <v>10</v>
+      <c r="A8" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>33970</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>995</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>4467.55</v>
       </c>
       <c r="G8" s="2">
-        <f>SUM(G2:G7)</f>
-        <v>11075.580000000002</v>
+        <f>SUM(F8,F9)</f>
+        <v>5590.21</v>
       </c>
       <c r="H8" s="2">
-        <f>SUM(H2:H7)</f>
-        <v>11075.58</v>
+        <v>5590.21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17965</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>1122.6600000000001</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>35864</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(C10,-C8)</f>
+        <v>1894</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>8504.0600000000013</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(F10,F11)</f>
+        <v>10302.260000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10302.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18705</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C9)</f>
+        <v>740</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>1798.2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM(G2:G11)</f>
+        <v>26968.050000000003</v>
+      </c>
+      <c r="H12" s="2">
+        <f>SUM(H2:H11)</f>
+        <v>26968.050000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <f>SUM(H12,-G12)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -738,23 +738,74 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="3" t="s">
+      <c r="A12" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>36829</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C10)</f>
+        <v>965</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>4332.8500000000004</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM(F12,F13)</f>
+        <v>5244.1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5244.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>19080</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C11)</f>
+        <v>375</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="5"/>
+        <v>911.25000000000011</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
-        <f>SUM(G2:G11)</f>
-        <v>26968.050000000003</v>
-      </c>
-      <c r="H12" s="2">
-        <f>SUM(H2:H11)</f>
-        <v>26968.050000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <f>SUM(H12,-G12)</f>
+      <c r="G14" s="2">
+        <f>SUM(G2:G13)</f>
+        <v>32212.15</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(H2:H13)</f>
+        <v>32212.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -149,6 +149,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G12" sqref="G12:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,11 +760,11 @@
         <f t="shared" ref="F12:F13" si="5">D12*E12</f>
         <v>4332.8500000000004</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
         <v>5244.1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="9">
         <v>5244.1</v>
       </c>
     </row>
@@ -785,29 +787,84 @@
         <f t="shared" si="5"/>
         <v>911.25000000000011</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="3" t="s">
+      <c r="A14" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>37319</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C12)</f>
+        <v>490</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>2307.9</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>2517</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>19162</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C13)</f>
+        <v>82</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>209.1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G16" s="9">
         <f>SUM(G2:G13)</f>
         <v>32212.15</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H16" s="9">
         <f>SUM(H2:H13)</f>
         <v>32212.15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <f>SUM(H14,-G14)</f>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,14 +699,14 @@
         <v>35864</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" ref="D10:D17" si="4">SUM(C10,-C8)</f>
         <v>1894</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
         <v>8504.0600000000013</v>
       </c>
       <c r="G10" s="2">
@@ -726,14 +726,14 @@
         <v>18705</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="4"/>
         <v>740</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1798.2</v>
       </c>
       <c r="G11" s="2"/>
@@ -750,14 +750,14 @@
         <v>36829</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(C12,-C10)</f>
+        <f t="shared" si="4"/>
         <v>965</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
         <v>4332.8500000000004</v>
       </c>
       <c r="G12" s="9">
@@ -777,14 +777,14 @@
         <v>19080</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" si="4"/>
         <v>375</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>911.25000000000011</v>
       </c>
       <c r="G13" s="9"/>
@@ -801,14 +801,14 @@
         <v>37319</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="4"/>
         <v>490</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
         <v>2307.9</v>
       </c>
       <c r="G14" s="9">
@@ -828,43 +828,94 @@
         <v>19162</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>209.1</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="3" t="s">
+      <c r="A16" s="4">
+        <v>44061</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37846</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="4"/>
+        <v>527</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>2482.17</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>2908.02</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2908.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>19329</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="8"/>
+        <v>425.84999999999997</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G18" s="9">
         <f>SUM(G2:G13)</f>
         <v>32212.15</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H18" s="9">
         <f>SUM(H2:H13)</f>
         <v>32212.15</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,29 +893,80 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="3" t="s">
+      <c r="A18" s="4">
+        <v>44103</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>38376</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
+        <v>530</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>2496.3000000000002</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>2929.8</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2929.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19499</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="10"/>
+        <v>433.49999999999994</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G20" s="9">
         <f>SUM(G2:G13)</f>
         <v>32212.15</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H20" s="9">
         <f>SUM(H2:H13)</f>
         <v>32212.15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,29 +944,80 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
+      <c r="A20" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>38906</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
+        <v>530</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>2496.3000000000002</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>2929.8</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2929.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>19669</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="12"/>
+        <v>433.49999999999994</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
-        <f>SUM(G2:G13)</f>
-        <v>32212.15</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SUM(H2:H13)</f>
-        <v>32212.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
+      <c r="G22" s="9">
+        <f>SUM(G2:G21)</f>
+        <v>43496.770000000004</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H2:H21)</f>
+        <v>43496.770000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f>SUM(H22,-G22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,19 +507,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43829</v>
+        <v>44103</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>31076</v>
+        <v>38376</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -527,41 +527,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>16454</v>
+        <v>19499</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43858</v>
+        <v>44134</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>31849</v>
+        <v>38906</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
-        <v>773</v>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>530</v>
       </c>
       <c r="E4" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
-        <v>3470.77</v>
-      </c>
-      <c r="G4" s="2">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2496.3000000000002</v>
+      </c>
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>4622.59</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4622.59</v>
+        <v>2929.8</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2929.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,459 +570,51 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>16928</v>
+        <v>19669</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>1151.8200000000002</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>433.49999999999994</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43895</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(G2:G5)</f>
+        <v>2929.8</v>
+      </c>
+      <c r="H6" s="9">
+        <f>SUM(H2:H5)</f>
+        <v>2929.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <f>SUM(H6,-G6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>32975</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>1126</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>5055.7400000000007</v>
-      </c>
-      <c r="G6" s="2">
-        <f>SUM(F6,F7)</f>
-        <v>6452.9900000000007</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6452.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>17503</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>1397.25</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43927</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>33970</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>995</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>4467.55</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM(F8,F9)</f>
-        <v>5590.21</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5590.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17965</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>462</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>1122.6600000000001</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43965</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>35864</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="4">SUM(C10,-C8)</f>
-        <v>1894</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>8504.0600000000013</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM(F10,F11)</f>
-        <v>10302.260000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10302.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18705</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>740</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="5"/>
-        <v>1798.2</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43999</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>36829</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="4"/>
-        <v>965</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>4332.8500000000004</v>
-      </c>
-      <c r="G12" s="9">
-        <f>SUM(F12,F13)</f>
-        <v>5244.1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5244.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>19080</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>375</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="6"/>
-        <v>911.25000000000011</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44032</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>37319</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="4"/>
-        <v>490</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>2307.9</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUM(F14,F15)</f>
-        <v>2517</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>19162</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>209.1</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44061</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>37846</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="4"/>
-        <v>527</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>2482.17</v>
-      </c>
-      <c r="G16" s="9">
-        <f>SUM(F16,F17)</f>
-        <v>2908.02</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2908.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>19329</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="4"/>
-        <v>167</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="8"/>
-        <v>425.84999999999997</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44103</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>38376</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
-        <v>530</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>2496.3000000000002</v>
-      </c>
-      <c r="G18" s="9">
-        <f>SUM(F18,F19)</f>
-        <v>2929.8</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2929.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>19499</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>170</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="10"/>
-        <v>433.49999999999994</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44134</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>38906</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
-        <v>530</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
-        <v>2496.3000000000002</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(F20,F21)</f>
-        <v>2929.8</v>
-      </c>
-      <c r="H20" s="9">
-        <v>2929.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>19669</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="12"/>
-        <v>433.49999999999994</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="9">
-        <f>SUM(G2:G21)</f>
-        <v>43496.770000000004</v>
-      </c>
-      <c r="H22" s="9">
-        <f>SUM(H2:H21)</f>
-        <v>43496.770000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
-        <f>SUM(H22,-G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,29 +587,131 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>39436</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>530</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>2496.3000000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>2929.8</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2929.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>19839</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>433.49999999999994</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40436</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>4710</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>5475</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20139</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>765</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9">
-        <f>SUM(G2:G5)</f>
-        <v>2929.8</v>
-      </c>
-      <c r="H6" s="9">
-        <f>SUM(H2:H5)</f>
-        <v>2929.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <f>SUM(H6,-G6)</f>
+      <c r="G10" s="9">
+        <f>SUM(G2:G7)</f>
+        <v>5859.6</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H7)</f>
+        <v>5859.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,29 +689,182 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="4">
+        <v>44236</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40930</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>494</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>2326.7399999999998</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>4198.4399999999996</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4198.4399999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20873</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>734</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>1871.6999999999998</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44270</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42218</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>1288</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>6066.48</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>7731.6299999999992</v>
+      </c>
+      <c r="H12" s="9">
+        <v>7731.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21526</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>653</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="9"/>
+        <v>1665.1499999999999</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43118</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>4239</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>5259</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>21926</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="11"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G16" s="9">
         <f>SUM(G2:G7)</f>
         <v>5859.6</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H16" s="9">
         <f>SUM(H2:H7)</f>
         <v>5859.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>SUM(H10,-G10)</f>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -842,29 +842,80 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="3" t="s">
+      <c r="A16" s="4">
+        <v>44329</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44018</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>900</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>4239</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>5259</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22326</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="13"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G18" s="9">
         <f>SUM(G2:G7)</f>
         <v>5859.6</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H18" s="9">
         <f>SUM(H2:H7)</f>
         <v>5859.6</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,29 +893,80 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="3" t="s">
+      <c r="A18" s="4">
+        <v>44362</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44300</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>282</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>1328.22</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>1771.92</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1771.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22500</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="15"/>
+        <v>443.7</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G20" s="9">
         <f>SUM(G2:G7)</f>
         <v>5859.6</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H20" s="9">
         <f>SUM(H2:H7)</f>
         <v>5859.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -127,10 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,7 +457,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,493 +476,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44103</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>38376</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>19499</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44134</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>38906</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
         <v>530</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4.71</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>2496.3000000000002</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
         <v>2929.8</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2929.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>19669</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>433.49999999999994</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44168</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>39436</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
         <v>530</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>4.71</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F7" si="3">D6*E6</f>
         <v>2496.3000000000002</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
         <v>2929.8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2929.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>19839</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="3"/>
         <v>433.49999999999994</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44196</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>40436</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>4.71</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" ref="F8:F9" si="5">D8*E8</f>
         <v>4710</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
         <v>5475</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>5475</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>20139</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="5"/>
         <v>765</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44236</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>40930</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
         <v>494</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>4.71</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" ref="F10:F11" si="7">D10*E10</f>
         <v>2326.7399999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
         <v>4198.4399999999996</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>4198.4399999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>20873</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="6"/>
         <v>734</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="7"/>
         <v>1871.6999999999998</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44270</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>42218</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
         <v>1288</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" ref="F12:F13" si="9">D12*E12</f>
         <v>6066.48</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
         <v>7731.6299999999992</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>7731.63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>21526</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="8"/>
         <v>653</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="9"/>
         <v>1665.1499999999999</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44299</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>43118</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>4.71</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" ref="F14:F15" si="11">D14*E14</f>
         <v>4239</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
         <v>5259</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>5259</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>21926</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="11"/>
         <v>1019.9999999999999</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44329</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>44018</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
         <v>900</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>4.71</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" ref="F16:F17" si="13">D16*E16</f>
         <v>4239</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
         <v>5259</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>5259</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>22326</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="13"/>
         <v>1019.9999999999999</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>44362</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>44300</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
         <v>282</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>4.71</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" ref="F18:F19" si="15">D18*E18</f>
         <v>1328.22</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
         <v>1771.92</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>1771.92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>22500</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="14"/>
         <v>174</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="15"/>
         <v>443.7</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(G2:G7)</f>
-        <v>5859.6</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SUM(H2:H7)</f>
-        <v>5859.6</v>
+      <c r="A20" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44600</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>300</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>1488</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>1890</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1890</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
-        <v>0</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22650</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="17"/>
+        <v>402</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,7 +146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -991,8 +990,55 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="A22" s="3">
+        <v>44431</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44700</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>496</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>630</v>
+      </c>
+      <c r="H22" s="8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22700</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -76,12 +76,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -124,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -453,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,20 +510,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44103</v>
+      <c r="A2" s="9">
+        <v>44435</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>38376</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+        <v>44800</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C4)</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>496</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2,F3)</f>
+        <v>630</v>
+      </c>
+      <c r="H2" s="8">
+        <v>630</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -522,41 +544,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>19499</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+        <v>22750</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C5)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44134</v>
+        <v>44431</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>38906</v>
+        <v>44700</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
-        <v>530</v>
+        <f>SUM(C4,-C6)</f>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2496.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>496</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2929.8</v>
+        <v>630</v>
       </c>
       <c r="H4" s="8">
-        <v>2929.8</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,50 +595,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>19669</v>
+        <v>22700</v>
       </c>
       <c r="D5" s="2">
+        <f>SUM(C5,-C7)</f>
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
-        <v>433.49999999999994</v>
+        <v>134</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44168</v>
+        <v>44397</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>39436</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
-        <v>530</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>2496.3000000000002</v>
-      </c>
-      <c r="G6" s="8">
-        <f>SUM(F6,F7)</f>
-        <v>2929.8</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2929.8</v>
-      </c>
+        <v>44600</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -616,429 +633,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>19839</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="3"/>
-        <v>433.49999999999994</v>
-      </c>
+        <v>22650</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>40436</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
-        <v>1000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>4710</v>
-      </c>
-      <c r="G8" s="8">
-        <f>SUM(F8,F9)</f>
-        <v>5475</v>
-      </c>
-      <c r="H8" s="8">
-        <v>5475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20139</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="5"/>
-        <v>765</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44236</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>40930</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
-        <v>494</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>2326.7399999999998</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM(F10,F11)</f>
-        <v>4198.4399999999996</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4198.4399999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20873</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>734</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="7"/>
-        <v>1871.6999999999998</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44270</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42218</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
-        <v>1288</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>6066.48</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(F12,F13)</f>
-        <v>7731.6299999999992</v>
-      </c>
-      <c r="H12" s="8">
-        <v>7731.63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>21526</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>653</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="9"/>
-        <v>1665.1499999999999</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44299</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43118</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
-        <v>900</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>4239</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(F14,F15)</f>
-        <v>5259</v>
-      </c>
-      <c r="H14" s="8">
-        <v>5259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>21926</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="11"/>
-        <v>1019.9999999999999</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44329</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
-        <v>900</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>4239</v>
-      </c>
-      <c r="G16" s="8">
-        <f>SUM(F16,F17)</f>
-        <v>5259</v>
-      </c>
-      <c r="H16" s="8">
-        <v>5259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>22326</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="12"/>
-        <v>400</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="13"/>
-        <v>1019.9999999999999</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44362</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44300</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
-        <v>282</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
-        <v>1328.22</v>
-      </c>
-      <c r="G18" s="8">
-        <f>SUM(F18,F19)</f>
-        <v>1771.92</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1771.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>22500</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="14"/>
-        <v>174</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="15"/>
-        <v>443.7</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44397</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44600</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
-        <v>300</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.96</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>1488</v>
-      </c>
-      <c r="G20" s="8">
-        <f>SUM(F20,F21)</f>
-        <v>1890</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>22650</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="16"/>
-        <v>150</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="17"/>
-        <v>402</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44431</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44700</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
-        <v>100</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.96</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
-        <v>496</v>
-      </c>
-      <c r="G22" s="8">
-        <f>SUM(F22,F23)</f>
-        <v>630</v>
-      </c>
-      <c r="H22" s="8">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>22700</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="18"/>
-        <v>50</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="19"/>
-        <v>134</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/20ee.xlsx
+++ b/sputnik/personal/ee/20ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -76,7 +76,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +86,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,6 +159,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -511,23 +520,23 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44435</v>
+        <v>44545</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>44800</v>
+        <v>45000</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
         <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>4.96</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>496</v>
       </c>
       <c r="G2" s="8">
@@ -544,41 +553,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>22750</v>
+        <v>22850</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44431</v>
+      <c r="A4" s="10">
+        <v>44508</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>4.96</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
         <v>496</v>
       </c>
       <c r="G4" s="8">
@@ -595,37 +604,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44397</v>
+      <c r="A6" s="10">
+        <v>44435</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>44600</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+        <v>44800</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F9" si="3">D6*E6</f>
+        <v>496</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>630</v>
+      </c>
+      <c r="H6" s="8">
+        <v>630</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -633,13 +655,102 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>22650</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
+        <v>22750</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44431</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44700</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>496</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>630</v>
+      </c>
+      <c r="H8" s="8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22700</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44600</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22650</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
